--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474AD41-9906-C842-BC50-71569787E3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1685E-C7E2-4B4C-9C22-FD645621BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="-21020" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="282">
   <si>
     <t>title</t>
   </si>
@@ -1650,10 +1650,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>林口衛生所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2199,6 +2195,14 @@
   </si>
   <si>
     <t>凱擘大寬頻 / 北桃園數位有線電視</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林口區衛生所</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2665,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2680,12 +2684,14 @@
     <col min="5" max="5" width="54.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19" style="2" customWidth="1"/>
     <col min="7" max="7" width="56.1640625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="8.83203125" style="3"/>
+    <col min="9" max="9" width="92.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2700,18 +2706,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>152</v>
@@ -2720,13 +2729,13 @@
         <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>153</v>
@@ -2735,350 +2744,362 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="G7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="G8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c r="G9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18">
+      <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="A7" s="1" t="s">
+      <c r="G10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c r="G11" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="G12" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="G14" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c r="G15" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>10</v>
@@ -3086,71 +3107,68 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>67</v>
+        <v>247</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>223</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>221</v>
+        <v>248</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>10</v>
@@ -3158,94 +3176,94 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>100</v>
+        <v>195</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17">
+    <row r="22" spans="1:8" ht="17" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>196</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>224</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>7</v>
+        <v>227</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>9</v>
+        <v>253</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>10</v>
@@ -3253,77 +3271,68 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>15</v>
+        <v>254</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="17">
       <c r="A25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>199</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>19</v>
+        <v>255</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>200</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -3331,22 +3340,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>113</v>
+        <v>6</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>232</v>
+        <v>257</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -3354,25 +3366,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>121</v>
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>120</v>
+        <v>258</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>10</v>
@@ -3380,48 +3392,51 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>122</v>
+        <v>259</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="32">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>130</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>233</v>
+        <v>260</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
@@ -3429,25 +3444,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>29</v>
+        <v>261</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
@@ -3455,25 +3467,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>33</v>
+        <v>262</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3481,51 +3493,48 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="32">
       <c r="A34" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>129</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>38</v>
+        <v>264</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3533,25 +3542,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>42</v>
+        <v>265</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3559,25 +3568,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>46</v>
+        <v>266</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
@@ -3585,25 +3594,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
+        <v>103</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>50</v>
+        <v>105</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
@@ -3611,22 +3620,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>277</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>10</v>
@@ -3634,25 +3646,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>165</v>
+        <v>269</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3660,25 +3672,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>167</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>170</v>
+        <v>270</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3686,25 +3698,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>180</v>
+        <v>49</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>178</v>
+        <v>271</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3712,65 +3724,62 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>173</v>
+        <v>272</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H38">
-    <sortCondition ref="A3:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H42">
+    <sortCondition ref="A6:A42"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G15" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
-    <hyperlink ref="G16" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
-    <hyperlink ref="G17" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
-    <hyperlink ref="G18" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
-    <hyperlink ref="G20" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
-    <hyperlink ref="G31" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
-    <hyperlink ref="G32" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
-    <hyperlink ref="G5" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
-    <hyperlink ref="G12" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
-    <hyperlink ref="G14" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
-    <hyperlink ref="G22" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
-    <hyperlink ref="G28" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
-    <hyperlink ref="G29" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
-    <hyperlink ref="G6" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
-    <hyperlink ref="G9" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
-    <hyperlink ref="G10" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
-    <hyperlink ref="G11" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
-    <hyperlink ref="G7" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
-    <hyperlink ref="G39" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
-    <hyperlink ref="G40" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
-    <hyperlink ref="G42" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
-    <hyperlink ref="G41" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
-    <hyperlink ref="G27" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
-    <hyperlink ref="G30" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
+    <hyperlink ref="G21" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
+    <hyperlink ref="G22" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
+    <hyperlink ref="G35" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
+    <hyperlink ref="G6" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
+    <hyperlink ref="G18" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
+    <hyperlink ref="G25" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
+    <hyperlink ref="G26" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
+    <hyperlink ref="G32" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
+    <hyperlink ref="G33" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
+    <hyperlink ref="G12" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
+    <hyperlink ref="G15" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
+    <hyperlink ref="G10" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
+    <hyperlink ref="G13" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
+    <hyperlink ref="G3" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
+    <hyperlink ref="G5" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
+    <hyperlink ref="G4" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
+    <hyperlink ref="G31" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
+    <hyperlink ref="G34" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/municipal.xlsx
+++ b/data/municipal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1685E-C7E2-4B4C-9C22-FD645621BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F4FEF0-982F-6A4A-A7CC-BB8BBB6CD580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="-21020" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
+    <workbookView xWindow="-1120" yWindow="-25380" windowWidth="46720" windowHeight="16820" xr2:uid="{7DF87556-02EF-1D4C-B521-3FC679870A01}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="304">
   <si>
     <t>title</t>
   </si>
@@ -1228,10 +1228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>桃園市政府警察局龜山分局大埔派出所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2203,6 +2199,152 @@
   </si>
   <si>
     <t>林口區衛生所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龜山分局大埔派出所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M043</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M044</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健保署北區業務組 桃園聯絡辦公室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區介壽路11-4號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-433-9111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30 - 17:30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUN-042.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUN-043.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUN-044.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nhi.gov.tw/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區縣府路26號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-335-0003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bli.gov.tw/0100158.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>勞工保險局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>桃園辦事處</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hmv.thb.gov.tw/cl.aspx?n=1315</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新竹區監理所 桃園監理站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市桃園區介壽路416號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-366-4222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">08:00 - 17:00 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市環境清潔稽查大隊
+											&lt;ul&gt;
+												&lt;li&gt;
+													&lt;a href="https://www.tyemid.gov.tw/Convenience/Details/3"&gt;大型傢俱清運申請&lt;/a&gt;:
+													龜山區 申請電話 03-350-3877, 地址 龜山區中山街26號
+												&lt;/li&gt;
+												&lt;li&gt;
+													髒亂點查報：桃園市政信箱 / 市政建議 / 噪音, 污染及環境維護 &lt;a
+														href="https://taotalk.tycg.gov.tw/main/PageCtrl?p=p_1"&gt;髒亂點查報&lt;/a&gt;,
+													環保報案專線 03-335-4943, 0800-066-666
+													有專人24小時接聽處理並會告知登錄案號，後續可上網查詢處理結果或來電告知案號即可詢問處理結果。或洽詢「1999」市民諮詢服務熱線，歡迎多加利用。
+												&lt;/li&gt;
+												&lt;li&gt;
+													亂丟垃圾拍照檢舉管道： &lt;a href="https://www.tyemid.gov.tw/Convenience/Details/8"&gt;檢舉違反廢棄物清理法&lt;/a&gt;
+												&lt;/li&gt;
+											&lt;/ul&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市政府警察局：&lt;a href="https://tvrweb.typd.gov.tw:3443/"&gt;
+												交通違規檢舉專區&lt;/a&gt; &lt;br&gt;檢舉說明
+											&lt;ol&gt;
+												&lt;li&gt;違規車輛號牌：違規車號清晰可辨及車輛顏色。&lt;/li&gt;
+												&lt;li&gt;違規事實：應攝入相關標誌、標線或地點；如為標線，顏色須清楚可辨；車輛駕駛人是否在場（以辦識該車屬臨時停車或停車之狀態&lt;/li&gt;
+												&lt;li&gt;違規時之日期及時間。&lt;/li&gt;
+											&lt;/ol&gt;
+											使用含日期地點的照相軟體: 時間相機App &lt;a
+												href="https://play.google.com/store/apps/details?id=com.jeyluta.timestampcamerafree&amp;hl=zh_TW&amp;gl=US"&gt;Google
+												Play&lt;/a&gt;,
+											&lt;a href="https://apps.apple.com/tw/app/%E6%99%82%E9%96%93%E7%9B%B8%E6%A9%9F/id840110184"&gt;App
+												Store&lt;/a&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2669,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9307F4ED-2E27-7E4C-8083-2201FF514F2E}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2691,7 +2833,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2706,39 +2848,39 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>153</v>
+        <v>289</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>10</v>
@@ -2746,25 +2888,25 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>283</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>167</v>
+        <v>294</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>169</v>
+        <v>290</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>10</v>
@@ -2772,25 +2914,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>177</v>
+        <v>236</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>10</v>
@@ -2798,25 +2940,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>174</v>
+        <v>284</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -2824,25 +2966,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
+        <v>179</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>75</v>
+        <v>235</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>10</v>
@@ -2850,25 +2992,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>81</v>
+        <v>273</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>10</v>
@@ -2876,25 +3018,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>85</v>
+        <v>177</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>86</v>
+        <v>274</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -2902,51 +3044,51 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>127</v>
+        <v>174</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>160</v>
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>159</v>
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>10</v>
@@ -2954,25 +3096,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>10</v>
@@ -2980,51 +3122,51 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>10</v>
@@ -3032,25 +3174,25 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -3058,25 +3200,25 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -3084,408 +3226,417 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="209">
+      <c r="A18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="305">
+      <c r="A20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="G21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17">
+      <c r="A28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17">
-      <c r="A25" s="1" t="s">
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17">
+      <c r="A29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="B29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17">
-      <c r="A26" s="1" t="s">
+      <c r="G29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="G30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
@@ -3493,48 +3644,51 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="32">
-      <c r="A34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>10</v>
@@ -3542,25 +3696,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>29</v>
+        <v>262</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -3568,51 +3722,45 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>33</v>
+        <v>260</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="32">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>34</v>
+        <v>263</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>10</v>
@@ -3620,25 +3768,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>264</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>10</v>
@@ -3646,25 +3794,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>278</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>42</v>
+        <v>265</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>10</v>
@@ -3672,25 +3820,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>43</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>10</v>
@@ -3698,25 +3846,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -3724,62 +3872,143 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="3" t="s">
+      <c r="F45" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:H42">
-    <sortCondition ref="A6:A42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:H45">
+    <sortCondition ref="A10:A45"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
-    <hyperlink ref="G20" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
-    <hyperlink ref="G21" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
-    <hyperlink ref="G22" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
-    <hyperlink ref="G24" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
-    <hyperlink ref="G35" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
-    <hyperlink ref="G6" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
-    <hyperlink ref="G7" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
-    <hyperlink ref="G8" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{436E7BCD-5514-BE44-A962-4391733E23CB}"/>
+    <hyperlink ref="G23" r:id="rId2" xr:uid="{123EFA42-8725-324A-BBCC-6C8EF94E13F0}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{D3459DF9-68C3-AD4D-8120-D222882E4AD3}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{59E1A23C-80ED-2B4F-AFE7-458A4282616D}"/>
+    <hyperlink ref="G27" r:id="rId5" xr:uid="{2CAE0BCF-2A2C-8142-AAFE-6DA57825F133}"/>
+    <hyperlink ref="G38" r:id="rId6" xr:uid="{AA3DA1D0-56F9-4E4C-93C6-CDCFE7FA56E2}"/>
+    <hyperlink ref="G39" r:id="rId7" xr:uid="{0C2EA970-4D01-2748-B88C-3C78E669DCE7}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{1E13781E-B861-354C-817E-92F030A541AD}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{2E356582-CD9B-294A-A59D-AE8B3F4EF906}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{D2631B09-11CF-9D49-BC2B-00012E8636BE}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{F69F7CDE-C350-4540-93FE-EFE72685550A}"/>
     <hyperlink ref="G18" r:id="rId12" location="gsc.tab=0" xr:uid="{5F9651E1-CC47-9F46-A35D-913CD10FA98B}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
-    <hyperlink ref="G25" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
-    <hyperlink ref="G26" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
-    <hyperlink ref="G32" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
-    <hyperlink ref="G33" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
-    <hyperlink ref="G12" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
-    <hyperlink ref="G15" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
-    <hyperlink ref="G10" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
-    <hyperlink ref="G13" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
-    <hyperlink ref="G3" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
-    <hyperlink ref="G5" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
-    <hyperlink ref="G4" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
-    <hyperlink ref="G31" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
-    <hyperlink ref="G34" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G21" r:id="rId13" xr:uid="{F67F1519-6345-4847-8D18-FD785616B520}"/>
+    <hyperlink ref="G28" r:id="rId14" xr:uid="{255D97BB-DCE4-A74C-93F3-9E02876D1DEF}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{283216B3-6D1E-BC47-9A4F-156BCBCEA991}"/>
+    <hyperlink ref="G34" r:id="rId16" xr:uid="{51347FCF-C6E8-A045-84B3-CCBE0B46DD99}"/>
+    <hyperlink ref="G35" r:id="rId17" xr:uid="{1E9157DD-7F86-1D42-8A0B-E535C7309FE9}"/>
+    <hyperlink ref="G12" r:id="rId18" xr:uid="{FA848E4A-CAA7-9042-983D-957232FC4890}"/>
+    <hyperlink ref="G14" r:id="rId19" xr:uid="{EF725943-1520-D347-8CFA-DFE9A8162433}"/>
+    <hyperlink ref="G15" r:id="rId20" xr:uid="{5166110E-B876-4348-801D-380BF91F583D}"/>
+    <hyperlink ref="G17" r:id="rId21" xr:uid="{FDE04D02-A18B-A341-9F53-0D0E7F2FD172}"/>
+    <hyperlink ref="G19" r:id="rId22" xr:uid="{881716BC-2F82-9C42-9974-8C1B4F060421}"/>
+    <hyperlink ref="G13" r:id="rId23" location="/home" xr:uid="{060EA33D-8696-EB48-9EAB-69E35A406088}"/>
+    <hyperlink ref="G16" r:id="rId24" xr:uid="{DC795E2A-8DF5-2C4B-9FEC-9903B6663CF4}"/>
+    <hyperlink ref="G7" r:id="rId25" xr:uid="{7196986B-1064-4343-A545-F1C0EEA43C18}"/>
+    <hyperlink ref="G9" r:id="rId26" xr:uid="{F7F95C92-952D-8E4C-ACCC-51115470F8AE}"/>
+    <hyperlink ref="G8" r:id="rId27" xr:uid="{0678E98F-B385-6940-8D43-EFBAFA4CE1B1}"/>
+    <hyperlink ref="G36" r:id="rId28" xr:uid="{D605D9EF-F177-5743-9ECD-D51DDA8C4143}"/>
+    <hyperlink ref="G37" r:id="rId29" xr:uid="{AEFB3620-F87D-3944-9B24-87D2D91166DA}"/>
+    <hyperlink ref="G2" r:id="rId30" xr:uid="{39A7AEC3-E3F2-674E-B18D-DAD6D1D7518E}"/>
+    <hyperlink ref="G3" r:id="rId31" xr:uid="{4C2D4724-69BF-6044-8404-581A44D577AC}"/>
+    <hyperlink ref="G5" r:id="rId32" xr:uid="{0839A856-06F7-FE40-B60D-BC1AE0C5C782}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
